--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>28.0043004964095</v>
+        <v>75.22679916544067</v>
       </c>
       <c r="R2">
-        <v>28.0043004964095</v>
+        <v>677.041192488966</v>
       </c>
       <c r="S2">
-        <v>0.004266619664492866</v>
+        <v>0.007182415765630358</v>
       </c>
       <c r="T2">
-        <v>0.004266619664492866</v>
+        <v>0.007847914224469944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>17.07099805966583</v>
+        <v>26.40078364529633</v>
       </c>
       <c r="R3">
-        <v>17.07099805966583</v>
+        <v>237.607052807667</v>
       </c>
       <c r="S3">
-        <v>0.002600866821266549</v>
+        <v>0.002520662939040545</v>
       </c>
       <c r="T3">
-        <v>0.002600866821266549</v>
+        <v>0.002754219078913815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>2.623977702182088</v>
+        <v>0.5583003564166665</v>
       </c>
       <c r="R4">
-        <v>2.623977702182088</v>
+        <v>5.02470320775</v>
       </c>
       <c r="S4">
-        <v>0.0003997784149172483</v>
+        <v>5.330474413865918E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003997784149172483</v>
+        <v>5.824378223262041E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>22.88062781066107</v>
+        <v>3.956573678627999</v>
       </c>
       <c r="R5">
-        <v>22.88062781066107</v>
+        <v>35.60916310765199</v>
       </c>
       <c r="S5">
-        <v>0.003485998036816715</v>
+        <v>0.0003777610835835086</v>
       </c>
       <c r="T5">
-        <v>0.003485998036816715</v>
+        <v>0.0004127631535190037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H6">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I6">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J6">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>2220.360999570027</v>
+        <v>34.29449555767249</v>
       </c>
       <c r="R6">
-        <v>2220.360999570027</v>
+        <v>205.766973346035</v>
       </c>
       <c r="S6">
-        <v>0.3382850396228654</v>
+        <v>0.003274329471682823</v>
       </c>
       <c r="T6">
-        <v>0.3382850396228654</v>
+        <v>0.002385145209720446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>1353.498485715698</v>
+        <v>4437.45473721326</v>
       </c>
       <c r="R7">
-        <v>1353.498485715698</v>
+        <v>39937.09263491935</v>
       </c>
       <c r="S7">
-        <v>0.2062134441014273</v>
+        <v>0.4236740791501539</v>
       </c>
       <c r="T7">
-        <v>0.2062134441014273</v>
+        <v>0.4629302926478366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>208.0458233339366</v>
+        <v>1557.321110995542</v>
       </c>
       <c r="R8">
-        <v>208.0458233339366</v>
+        <v>14015.88999895988</v>
       </c>
       <c r="S8">
-        <v>0.03169700314656997</v>
+        <v>0.148688071589545</v>
       </c>
       <c r="T8">
-        <v>0.03169700314656997</v>
+        <v>0.1624650076121268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1339.72205469232</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>1339.72205469232</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.8525878247733181</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.8525878247733181</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>1814.123285921132</v>
+        <v>32.93284559297222</v>
       </c>
       <c r="R9">
-        <v>1814.123285921132</v>
+        <v>296.39561033675</v>
       </c>
       <c r="S9">
-        <v>0.2763923379024555</v>
+        <v>0.003144323459434117</v>
       </c>
       <c r="T9">
-        <v>0.2763923379024555</v>
+        <v>0.0034356658830181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H10">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J10">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>90.90348267060182</v>
+        <v>233.389122070036</v>
       </c>
       <c r="R10">
-        <v>90.90348267060182</v>
+        <v>2100.502098630324</v>
       </c>
       <c r="S10">
-        <v>0.01384967950843848</v>
+        <v>0.02228325182619957</v>
       </c>
       <c r="T10">
-        <v>0.01384967950843848</v>
+        <v>0.02434794290398888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H11">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J11">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>55.4133882574811</v>
+        <v>2022.952903234049</v>
       </c>
       <c r="R11">
-        <v>55.4133882574811</v>
+        <v>12137.71741940429</v>
       </c>
       <c r="S11">
-        <v>0.008442555172762125</v>
+        <v>0.1931451156570131</v>
       </c>
       <c r="T11">
-        <v>0.008442555172762125</v>
+        <v>0.140694194452418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H12">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I12">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J12">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>8.51757434930172</v>
+        <v>182.8797745169134</v>
       </c>
       <c r="R12">
-        <v>8.51757434930172</v>
+        <v>1645.91797065222</v>
       </c>
       <c r="S12">
-        <v>0.001297702480273348</v>
+        <v>0.01746077980556478</v>
       </c>
       <c r="T12">
-        <v>0.001297702480273348</v>
+        <v>0.01907863686507195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.8493693618876</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H13">
-        <v>54.8493693618876</v>
+        <v>180.29937</v>
       </c>
       <c r="I13">
-        <v>0.03490567640552861</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J13">
-        <v>0.03490567640552861</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35410421853342</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N13">
-        <v>1.35410421853342</v>
+        <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.3241804889436948</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P13">
-        <v>0.3241804889436948</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q13">
-        <v>74.27176243682972</v>
+        <v>64.18150730437668</v>
       </c>
       <c r="R13">
-        <v>74.27176243682972</v>
+        <v>577.6335657393901</v>
       </c>
       <c r="S13">
-        <v>0.01131573924405466</v>
+        <v>0.006127846393026506</v>
       </c>
       <c r="T13">
-        <v>0.01131573924405466</v>
+        <v>0.006695632004948256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H14">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I14">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J14">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.65732958697911</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N14">
-        <v>1.65732958697911</v>
+        <v>0.06775</v>
       </c>
       <c r="O14">
-        <v>0.3967744199406166</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P14">
-        <v>0.3967744199406166</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q14">
-        <v>231.0660602903783</v>
+        <v>1.357253590833333</v>
       </c>
       <c r="R14">
-        <v>231.0660602903783</v>
+        <v>12.2152823175</v>
       </c>
       <c r="S14">
-        <v>0.03520427145674369</v>
+        <v>0.0001295862604405235</v>
       </c>
       <c r="T14">
-        <v>0.03520427145674369</v>
+        <v>0.0001415932869653079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H15">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I15">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J15">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.01028305160397</v>
+        <v>0.160044</v>
       </c>
       <c r="N15">
-        <v>1.01028305160397</v>
+        <v>0.480132</v>
       </c>
       <c r="O15">
-        <v>0.2418676857791798</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P15">
-        <v>0.2418676857791798</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q15">
-        <v>140.8543758262205</v>
+        <v>9.61861079076</v>
       </c>
       <c r="R15">
-        <v>140.8543758262205</v>
+        <v>86.56749711684</v>
       </c>
       <c r="S15">
-        <v>0.02145999146834869</v>
+        <v>0.0009183543970159324</v>
       </c>
       <c r="T15">
-        <v>0.02145999146834869</v>
+        <v>0.001003446022984904</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.42070551673</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H16">
-        <v>139.42070551673</v>
+        <v>180.29937</v>
       </c>
       <c r="I16">
-        <v>0.0887261619890026</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J16">
-        <v>0.0887261619890026</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.155290287716967</v>
+        <v>1.3872175</v>
       </c>
       <c r="N16">
-        <v>0.155290287716967</v>
+        <v>2.774435</v>
       </c>
       <c r="O16">
-        <v>0.03717740533650878</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P16">
-        <v>0.03717740533650878</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q16">
-        <v>21.65068147339553</v>
+        <v>83.37148043432501</v>
       </c>
       <c r="R16">
-        <v>21.65068147339553</v>
+        <v>500.22888260595</v>
       </c>
       <c r="S16">
-        <v>0.003298608488217887</v>
+        <v>0.007960044055025177</v>
       </c>
       <c r="T16">
-        <v>0.003298608488217887</v>
+        <v>0.005798396621720945</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.42070551673</v>
+        <v>280.168911</v>
       </c>
       <c r="H17">
-        <v>139.42070551673</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I17">
-        <v>0.0887261619890026</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J17">
-        <v>0.0887261619890026</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35410421853342</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N17">
-        <v>1.35410421853342</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O17">
-        <v>0.3241804889436948</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P17">
-        <v>0.3241804889436948</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q17">
-        <v>188.7901654911098</v>
+        <v>852.5358785834222</v>
       </c>
       <c r="R17">
-        <v>188.7901654911098</v>
+        <v>7672.822907250799</v>
       </c>
       <c r="S17">
-        <v>0.02876329057569233</v>
+        <v>0.08139741691835987</v>
       </c>
       <c r="T17">
-        <v>0.02876329057569233</v>
+        <v>0.08893942747306875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H18">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I18">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J18">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.65732958697911</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N18">
-        <v>1.65732958697911</v>
+        <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.3967744199406166</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P18">
-        <v>0.3967744199406166</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q18">
-        <v>33.92589710262909</v>
+        <v>299.196769369839</v>
       </c>
       <c r="R18">
-        <v>33.92589710262909</v>
+        <v>2692.770924328551</v>
       </c>
       <c r="S18">
-        <v>0.00516880968807621</v>
+        <v>0.02856635689924232</v>
       </c>
       <c r="T18">
-        <v>0.00516880968807621</v>
+        <v>0.03121321933542695</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H19">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I19">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J19">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.01028305160397</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N19">
-        <v>1.01028305160397</v>
+        <v>0.06775</v>
       </c>
       <c r="O19">
-        <v>0.2418676857791798</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P19">
-        <v>0.2418676857791798</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q19">
-        <v>20.68071379557072</v>
+        <v>6.327147906750001</v>
       </c>
       <c r="R19">
-        <v>20.68071379557072</v>
+        <v>56.94433116075001</v>
       </c>
       <c r="S19">
-        <v>0.003150828215375135</v>
+        <v>0.000604095978840922</v>
       </c>
       <c r="T19">
-        <v>0.003150828215375135</v>
+        <v>0.0006600694780128318</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H20">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I20">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J20">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.155290287716967</v>
+        <v>0.160044</v>
       </c>
       <c r="N20">
-        <v>0.155290287716967</v>
+        <v>0.480132</v>
       </c>
       <c r="O20">
-        <v>0.03717740533650878</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P20">
-        <v>0.03717740533650878</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q20">
-        <v>3.178825964077775</v>
+        <v>44.839353192084</v>
       </c>
       <c r="R20">
-        <v>3.178825964077775</v>
+        <v>403.554178728756</v>
       </c>
       <c r="S20">
-        <v>0.0004843128065303275</v>
+        <v>0.004281118974359403</v>
       </c>
       <c r="T20">
-        <v>0.0004843128065303275</v>
+        <v>0.004677793042321136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.4702174927483</v>
+        <v>280.168911</v>
       </c>
       <c r="H21">
-        <v>20.4702174927483</v>
+        <v>840.5067330000001</v>
       </c>
       <c r="I21">
-        <v>0.01302707389465733</v>
+        <v>0.1519565539454633</v>
       </c>
       <c r="J21">
-        <v>0.01302707389465733</v>
+        <v>0.152521060800867</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35410421853342</v>
+        <v>1.3872175</v>
       </c>
       <c r="N21">
-        <v>1.35410421853342</v>
+        <v>2.774435</v>
       </c>
       <c r="O21">
-        <v>0.3241804889436948</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P21">
-        <v>0.3241804889436948</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q21">
-        <v>27.71880786122708</v>
+        <v>388.6552162951426</v>
       </c>
       <c r="R21">
-        <v>27.71880786122708</v>
+        <v>2331.931297770855</v>
       </c>
       <c r="S21">
-        <v>0.004223123184675655</v>
+        <v>0.03710756517466081</v>
       </c>
       <c r="T21">
-        <v>0.004223123184675655</v>
+        <v>0.02703055147203736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.472042</v>
+      </c>
+      <c r="H22">
+        <v>40.944084</v>
+      </c>
+      <c r="I22">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J22">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N22">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P22">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q22">
+        <v>62.29509994728402</v>
+      </c>
+      <c r="R22">
+        <v>373.7705996837041</v>
+      </c>
+      <c r="S22">
+        <v>0.005947738212267862</v>
+      </c>
+      <c r="T22">
+        <v>0.004332557071103481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.472042</v>
+      </c>
+      <c r="H23">
+        <v>40.944084</v>
+      </c>
+      <c r="I23">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J23">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P23">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q23">
+        <v>21.862414380458</v>
+      </c>
+      <c r="R23">
+        <v>131.174486282748</v>
+      </c>
+      <c r="S23">
+        <v>0.002087353861429252</v>
+      </c>
+      <c r="T23">
+        <v>0.001520507360861493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.472042</v>
+      </c>
+      <c r="H24">
+        <v>40.944084</v>
+      </c>
+      <c r="I24">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J24">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.06775</v>
+      </c>
+      <c r="O24">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P24">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q24">
+        <v>0.4623269485000001</v>
+      </c>
+      <c r="R24">
+        <v>2.773961691</v>
+      </c>
+      <c r="S24">
+        <v>4.414150808782087E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.215434105700798E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.472042</v>
+      </c>
+      <c r="H25">
+        <v>40.944084</v>
+      </c>
+      <c r="I25">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J25">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.160044</v>
+      </c>
+      <c r="N25">
+        <v>0.480132</v>
+      </c>
+      <c r="O25">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P25">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q25">
+        <v>3.276427489848</v>
+      </c>
+      <c r="R25">
+        <v>19.658564939088</v>
+      </c>
+      <c r="S25">
+        <v>0.000312822886512496</v>
+      </c>
+      <c r="T25">
+        <v>0.0002278720011864702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.472042</v>
+      </c>
+      <c r="H26">
+        <v>40.944084</v>
+      </c>
+      <c r="I26">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J26">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3872175</v>
+      </c>
+      <c r="N26">
+        <v>2.774435</v>
+      </c>
+      <c r="O26">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P26">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q26">
+        <v>28.399174923135</v>
+      </c>
+      <c r="R26">
+        <v>113.59669969254</v>
+      </c>
+      <c r="S26">
+        <v>0.002711462988744648</v>
+      </c>
+      <c r="T26">
+        <v>0.001316754674988929</v>
       </c>
     </row>
   </sheetData>
